--- a/vTiger1/src/test/resources/data/VtigerTestScript.xlsx
+++ b/vTiger1/src/test/resources/data/VtigerTestScript.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateVendor" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateCampaign" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Vendor Name</t>
   </si>
@@ -39,6 +41,60 @@
   </si>
   <si>
     <t>inaya123@yahoo.in</t>
+  </si>
+  <si>
+    <t>abc22@gmail.in</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Vendor No</t>
+  </si>
+  <si>
+    <t>VEN14</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>My camapign</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Oxy</t>
+  </si>
+  <si>
+    <t>abc@yahoo.in</t>
+  </si>
+  <si>
+    <t>Campaign No</t>
+  </si>
+  <si>
+    <t>CAM10</t>
+  </si>
+  <si>
+    <t>CAM7</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Saw</t>
   </si>
 </sst>
 </file>
@@ -369,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,4 +464,147 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9981254321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2345678910</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>